--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.sga_team\nanami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.sga_team_V.2\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>화면 effect 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검선 effect추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데칼 셰이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버깅 및 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,6 +613,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,24 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,11 +935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,11 +969,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="17"/>
       <c r="E1" s="25"/>
       <c r="F1" s="17" t="s">
@@ -996,9 +1012,9 @@
       <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="17"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1035,9 +1051,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17"/>
@@ -1072,45 +1088,45 @@
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="39" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1240,19 +1256,19 @@
       <c r="L6" s="28"/>
       <c r="M6" s="29"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="32"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="29"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
@@ -1312,7 +1328,7 @@
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="O9" s="35"/>
-      <c r="P9" s="52"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
     </row>
@@ -1359,7 +1375,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
@@ -1376,15 +1392,18 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -1399,21 +1418,17 @@
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="32"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
@@ -1437,17 +1452,12 @@
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="23"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="30"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1456,14 +1466,30 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
       <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -1473,22 +1499,91 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="32"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="9870" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1394,7 @@
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="37"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>

--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.sga_team_V.2\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.sga_team_V.2\workspace\SGA_DirectxTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="11040" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>디버깅 및 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundmanager 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">soundmanager추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound리소스 추출 및 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,24 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,21 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +633,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,17 +926,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="16.375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="28" customWidth="1"/>
     <col min="3" max="3" width="55.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" customWidth="1"/>
     <col min="5" max="5" width="4" style="5" customWidth="1"/>
@@ -969,11 +960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="17"/>
       <c r="E1" s="25"/>
       <c r="F1" s="17" t="s">
@@ -1012,9 +1003,9 @@
       <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="17"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1051,9 +1042,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17"/>
@@ -1088,51 +1079,51 @@
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1245,54 +1236,54 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="24"/>
       <c r="AI6" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1305,9 +1296,9 @@
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1327,8 +1318,8 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="44"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
     </row>
@@ -1342,13 +1333,13 @@
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="23"/>
-      <c r="P10" s="38"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
@@ -1366,8 +1357,8 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="24"/>
@@ -1389,17 +1380,17 @@
       <c r="M12" s="24"/>
       <c r="N12" s="22"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="38"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="24"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
@@ -1417,14 +1408,14 @@
       <c r="M13" s="24"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="38"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
@@ -1442,7 +1433,7 @@
       <c r="M14" s="24"/>
       <c r="N14" s="22"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="38"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
@@ -1452,8 +1443,8 @@
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="30"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="22"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
@@ -1471,21 +1462,21 @@
       <c r="M15" s="24"/>
       <c r="N15" s="22"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -1503,7 +1494,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="22"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="38"/>
+      <c r="P16" s="32"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
@@ -1513,15 +1504,15 @@
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1534,7 +1525,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
       <c r="N17" s="22"/>
@@ -1551,39 +1542,106 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="30"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="31"/>
       <c r="AC18" s="23"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="23"/>
+      <c r="AF19" s="29"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="23"/>
+      <c r="AF20" s="29"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="32"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.sga_team_V.2\workspace\SGA_DirectxTeam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
@@ -610,6 +605,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,25 +640,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -918,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,11 +983,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="17"/>
       <c r="E1" s="25"/>
       <c r="F1" s="17" t="s">
@@ -1003,9 +1026,9 @@
       <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="17"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1042,9 +1065,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17"/>
@@ -1079,45 +1102,45 @@
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="34" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1247,12 +1270,12 @@
       <c r="L6" s="29"/>
       <c r="M6" s="30"/>
       <c r="N6" s="31"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="45"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="31"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
